--- a/assets/dataset.xlsx
+++ b/assets/dataset.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaydenlefebvre/Documents/GitHub/SAFS3530-RelativeWaterContent/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9878B6-0D36-3A4B-89AD-0D0DD5BEB91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6AD465A-CE37-B640-A764-7719B215C144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="2240" windowWidth="34200" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab2_RWC" sheetId="1" r:id="rId1"/>
-    <sheet name="Hydrated" sheetId="2" r:id="rId2"/>
-    <sheet name="Droughted" sheetId="3" r:id="rId3"/>
+    <sheet name="dataset" sheetId="5" r:id="rId2"/>
+    <sheet name="hydrated" sheetId="2" r:id="rId3"/>
+    <sheet name="droughted" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>GPA</t>
   </si>
@@ -77,9 +78,6 @@
   </si>
   <si>
     <t>tem</t>
-  </si>
-  <si>
-    <t>MEAN</t>
   </si>
   <si>
     <t>temp</t>
@@ -225,6 +223,42 @@
   </si>
   <si>
     <t>AM-JB</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Trt.</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Fresh (g)</t>
+  </si>
+  <si>
+    <t>Turgid (g)</t>
+  </si>
+  <si>
+    <t>Dry (g)</t>
+  </si>
+  <si>
+    <t>RWC (%)</t>
+  </si>
+  <si>
+    <t>L:S Temp. Ratio</t>
+  </si>
+  <si>
+    <t>Leaf Temp. (°C)</t>
+  </si>
+  <si>
+    <t>Soil Temp. (°C)</t>
+  </si>
+  <si>
+    <t>CCI</t>
   </si>
 </sst>
 </file>
@@ -320,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -381,6 +415,8 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +725,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B8" sqref="A1:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -714,55 +750,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -770,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
@@ -826,10 +862,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
@@ -882,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13">
         <v>1</v>
@@ -938,10 +974,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -994,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="13">
         <v>2</v>
@@ -1050,10 +1086,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="13">
         <v>2</v>
@@ -1106,10 +1142,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="13">
         <v>2</v>
@@ -1158,10 +1194,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D9" s="13">
         <v>3</v>
@@ -1214,10 +1250,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="13">
         <v>3</v>
@@ -1270,10 +1306,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="13">
         <v>3</v>
@@ -1326,10 +1362,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="13">
         <v>4</v>
@@ -1382,10 +1418,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="13">
         <v>4</v>
@@ -1438,10 +1474,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="13">
         <v>4</v>
@@ -1493,10 +1529,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="13">
         <v>4</v>
@@ -1549,10 +1585,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="13">
         <v>4</v>
@@ -1606,14 +1642,551 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12B8200-5DEB-C74C-B7E8-58F7F86E49F6}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0.76470588235294124</v>
+      </c>
+      <c r="G2" s="23">
+        <v>18.47</v>
+      </c>
+      <c r="H2" s="23">
+        <v>38.17</v>
+      </c>
+      <c r="I2" s="23">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.061180292365999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.89972144846796664</v>
+      </c>
+      <c r="G3" s="23">
+        <v>18.3</v>
+      </c>
+      <c r="H3" s="23">
+        <v>32.5</v>
+      </c>
+      <c r="I3" s="23">
+        <v>19.8</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0819672131147542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.68521229868228395</v>
+      </c>
+      <c r="G4" s="23">
+        <v>18.7</v>
+      </c>
+      <c r="H4" s="23">
+        <v>22.6</v>
+      </c>
+      <c r="I4" s="23">
+        <v>18.7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.8926014319809068</v>
+      </c>
+      <c r="G5" s="23">
+        <v>18.3</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I5" s="23">
+        <v>18.63</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0180327868852459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.91</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.46</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.89402697495183059</v>
+      </c>
+      <c r="G6" s="23">
+        <v>18.43</v>
+      </c>
+      <c r="H6" s="23">
+        <v>15.96</v>
+      </c>
+      <c r="I6" s="23">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0309278350515465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.66</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.91280148423005558</v>
+      </c>
+      <c r="G7" s="23">
+        <v>18.7</v>
+      </c>
+      <c r="H7" s="23">
+        <v>14.3</v>
+      </c>
+      <c r="I7" s="23">
+        <v>18.7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.55</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.32</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.87123745819397991</v>
+      </c>
+      <c r="G8" s="23">
+        <v>15.03</v>
+      </c>
+      <c r="H8" s="23">
+        <v>16.73</v>
+      </c>
+      <c r="I8" s="23">
+        <v>19.53</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.89261744966442957</v>
+      </c>
+      <c r="G9" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="I9" s="23">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0309278350515465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.81714285714285706</v>
+      </c>
+      <c r="G10" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="I10" s="2">
+        <v>17.7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.91709844559585485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.09</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.93094629156010233</v>
+      </c>
+      <c r="G11" s="23">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.131578947368421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12.07</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13.77</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.86486486486486491</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0394088669950738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11.23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11.99</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.92962962962962969</v>
+      </c>
+      <c r="G13" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0252525252525253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10.25</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.93222106360792489</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="I14" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0594059405940595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9.34</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10.82</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0.84742268041237112</v>
+      </c>
+      <c r="G15" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.0301507537688444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.03</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.65</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.91230551626591228</v>
+      </c>
+      <c r="G16" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.1016042780748665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1666,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1986,37 +2559,18 @@
     </row>
     <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="5">
-        <f>AVERAGE(E2:E8)</f>
-        <v>0.84575813983713766</v>
-      </c>
-      <c r="M12" s="5">
-        <f>AVERAGE(M2:M8)</f>
-        <v>19.137142857142859</v>
-      </c>
-      <c r="N12" s="5">
-        <f>AVERAGE(N2:N8)</f>
-        <v>1.0702156178603337</v>
-      </c>
+      <c r="E12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2024,7 +2578,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2458,37 +3012,12 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="5">
-        <f>AVERAGE(E2:E9)</f>
-        <v>0.89089379414351155</v>
-      </c>
-      <c r="H12" s="5">
-        <f>AVERAGE(H2:H9)</f>
-        <v>19.574999999999999</v>
-      </c>
-      <c r="M12" s="5">
-        <f>AVERAGE(M2:M9)</f>
-        <v>20.387499999999999</v>
-      </c>
-      <c r="N12" s="5">
-        <f>AVERAGE(N2:N9)</f>
-        <v>1.041928449087649</v>
-      </c>
+      <c r="E12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/dataset.xlsx
+++ b/assets/dataset.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaydenlefebvre/Documents/GitHub/SAFS3530-RelativeWaterContent/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6AD465A-CE37-B640-A764-7719B215C144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F0C7678-521E-E847-A5A0-47C871BEB5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="2240" windowWidth="34200" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab2_RWC" sheetId="1" r:id="rId1"/>
-    <sheet name="dataset" sheetId="5" r:id="rId2"/>
-    <sheet name="hydrated" sheetId="2" r:id="rId3"/>
-    <sheet name="droughted" sheetId="3" r:id="rId4"/>
+    <sheet name="trtmean" sheetId="7" r:id="rId2"/>
+    <sheet name="potmean" sheetId="6" r:id="rId3"/>
+    <sheet name="dataset" sheetId="5" r:id="rId4"/>
+    <sheet name="hydrated" sheetId="2" r:id="rId5"/>
+    <sheet name="droughted" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>GPA</t>
   </si>
@@ -260,17 +262,39 @@
   <si>
     <t>CCI</t>
   </si>
+  <si>
+    <t>Droughted Mean</t>
+  </si>
+  <si>
+    <t>Hydrated Mean</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>L °C / S °C</t>
+  </si>
+  <si>
+    <t>Leaf °C</t>
+  </si>
+  <si>
+    <t>Soil °C</t>
+  </si>
+  <si>
+    <t>RWC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +313,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -351,10 +382,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -417,9 +449,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,10 +759,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:Q16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,7 +890,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="Q2" s="5">
-        <f t="shared" ref="Q2:Q7" si="2">P2/K2</f>
+        <f t="shared" ref="Q2:Q8" si="2">P2/K2</f>
         <v>1.061180292365999</v>
       </c>
     </row>
@@ -1188,6 +1225,10 @@
       <c r="P8" s="16">
         <v>19.53</v>
       </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2994011976047906</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -1634,6 +1675,24 @@
       <c r="Q16" s="5">
         <f t="shared" si="3"/>
         <v>1.1016042780748665</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="24">
+        <f>AVERAGE(H9:H16)</f>
+        <v>0.89089379414351155</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="24">
+        <f>AVERAGE(H2:H8)</f>
+        <v>0.84575813983713766</v>
       </c>
     </row>
   </sheetData>
@@ -1642,11 +1701,341 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0655446-FD7E-064D-BDF9-1BDABC3C5BE1}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2">
+        <f>AVERAGE(Lab2_RWC!E2:E8)</f>
+        <v>4.2985714285714289</v>
+      </c>
+      <c r="C2" s="2">
+        <f>AVERAGE(Lab2_RWC!F2:F8)</f>
+        <v>5.0171428571428578</v>
+      </c>
+      <c r="D2" s="2">
+        <f>AVERAGE(Lab2_RWC!G2:G8)</f>
+        <v>0.39428571428571424</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(Lab2_RWC!H2:H8)</f>
+        <v>0.84575813983713766</v>
+      </c>
+      <c r="F2" s="2">
+        <f>AVERAGE(Lab2_RWC!K2:K8)</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="G2" s="2">
+        <f>AVERAGE(Lab2_RWC!O2:O8)</f>
+        <v>20.398571428571433</v>
+      </c>
+      <c r="H2" s="2">
+        <f>AVERAGE(Lab2_RWC!P2:P8)</f>
+        <v>19.137142857142859</v>
+      </c>
+      <c r="I2" s="2">
+        <f>AVERAGE(Lab2_RWC!Q2:Q8)</f>
+        <v>1.0702156178603337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <f>AVERAGE(Lab2_RWC!E9:E16)</f>
+        <v>7.0287500000000005</v>
+      </c>
+      <c r="C3" s="2">
+        <f>AVERAGE(Lab2_RWC!F9:F16)</f>
+        <v>7.7737499999999997</v>
+      </c>
+      <c r="D3" s="2">
+        <f>AVERAGE(Lab2_RWC!G9:G16)</f>
+        <v>0.66250000000000009</v>
+      </c>
+      <c r="E3" s="2">
+        <f>AVERAGE(Lab2_RWC!H9:H16)</f>
+        <v>0.89089379414351155</v>
+      </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(Lab2_RWC!K9:K16)</f>
+        <v>19.574999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(Lab2_RWC!O9:O16)</f>
+        <v>17.862500000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <f>AVERAGE(Lab2_RWC!P9:P16)</f>
+        <v>20.387499999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <f>AVERAGE(Lab2_RWC!Q9:Q16)</f>
+        <v>1.041928449087649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A2997-D516-184E-9D11-DD86AC7A92B2}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>AVERAGE(Lab2_RWC!E2:E5)</f>
+        <v>3.6100000000000003</v>
+      </c>
+      <c r="C2" s="2">
+        <f>AVERAGE(Lab2_RWC!F2:F5)</f>
+        <v>4.42</v>
+      </c>
+      <c r="D2" s="2">
+        <f>AVERAGE(Lab2_RWC!G2:G5)</f>
+        <v>0.47</v>
+      </c>
+      <c r="E2" s="25">
+        <f>AVERAGE(Lab2_RWC!H2:H5)</f>
+        <v>0.81056026537102466</v>
+      </c>
+      <c r="F2" s="2">
+        <f>AVERAGE(Lab2_RWC!K2:K5)</f>
+        <v>18.442499999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <f>AVERAGE(Lab2_RWC!O2:O5)</f>
+        <v>23.950000000000003</v>
+      </c>
+      <c r="H2" s="2">
+        <f>AVERAGE(Lab2_RWC!P2:P5)</f>
+        <v>19.182500000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <f>AVERAGE(Lab2_RWC!Q2:Q5)</f>
+        <v>1.0402950730914997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>AVERAGE(Lab2_RWC!E6:E8)</f>
+        <v>5.2166666666666677</v>
+      </c>
+      <c r="C3" s="2">
+        <f>AVERAGE(Lab2_RWC!F6:F8)</f>
+        <v>5.8133333333333335</v>
+      </c>
+      <c r="D3" s="2">
+        <f>AVERAGE(Lab2_RWC!G6:G8)</f>
+        <v>0.29333333333333339</v>
+      </c>
+      <c r="E3" s="25">
+        <f>AVERAGE(Lab2_RWC!H6:H8)</f>
+        <v>0.89268863912528873</v>
+      </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(Lab2_RWC!K6:K8)</f>
+        <v>17.386666666666667</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(Lab2_RWC!O6:O8)</f>
+        <v>15.663333333333334</v>
+      </c>
+      <c r="H3" s="2">
+        <f>AVERAGE(Lab2_RWC!P6:P8)</f>
+        <v>19.076666666666668</v>
+      </c>
+      <c r="I3" s="2">
+        <f>AVERAGE(Lab2_RWC!Q6:Q8)</f>
+        <v>1.1101096775521124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>AVERAGE(Lab2_RWC!E9:E11)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <f>AVERAGE(Lab2_RWC!F9:F11)</f>
+        <v>2.57</v>
+      </c>
+      <c r="D4" s="2">
+        <f>AVERAGE(Lab2_RWC!G9:G11)</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="E4" s="25">
+        <f>AVERAGE(Lab2_RWC!H9:H11)</f>
+        <v>0.88023553278912969</v>
+      </c>
+      <c r="F4" s="2">
+        <f>AVERAGE(Lab2_RWC!K9:K11)</f>
+        <v>19.233333333333334</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(Lab2_RWC!O9:O11)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H4" s="2">
+        <f>AVERAGE(Lab2_RWC!P9:P11)</f>
+        <v>19.733333333333334</v>
+      </c>
+      <c r="I4" s="2">
+        <f>AVERAGE(Lab2_RWC!Q9:Q11)</f>
+        <v>1.026535076005274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>AVERAGE(Lab2_RWC!E12:E16)</f>
+        <v>9.8539999999999992</v>
+      </c>
+      <c r="C5" s="2">
+        <f>AVERAGE(Lab2_RWC!F12:F16)</f>
+        <v>10.895999999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <f>AVERAGE(Lab2_RWC!G12:G16)</f>
+        <v>0.94800000000000006</v>
+      </c>
+      <c r="E5" s="25">
+        <f>AVERAGE(Lab2_RWC!H12:H16)</f>
+        <v>0.89728875095614069</v>
+      </c>
+      <c r="F5" s="2">
+        <f>AVERAGE(Lab2_RWC!K12:K16)</f>
+        <v>19.779999999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <f>AVERAGE(Lab2_RWC!O12:O16)</f>
+        <v>18.580000000000002</v>
+      </c>
+      <c r="H5" s="2">
+        <f>AVERAGE(Lab2_RWC!P12:P16)</f>
+        <v>20.78</v>
+      </c>
+      <c r="I5" s="2">
+        <f>AVERAGE(Lab2_RWC!Q12:Q16)</f>
+        <v>1.0511644729370739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12B8200-5DEB-C74C-B7E8-58F7F86E49F6}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2178,7 +2567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2570,7 +2959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
